--- a/数据整理/stocks/A股/科创板/688375-国博电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688375-国博电子.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>13</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.79</v>
       </c>
     </row>
@@ -498,6 +515,820 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016305</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>58.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国新国证新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016306</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>58.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015870</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富安达先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国新国证新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015886</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富安达先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
